--- a/Code/QNN_EMG_modelo_full_RL_Refactoring/Experiments/resultsQNNByExperiment/recovering-7/experimentId_6/results_experimentId_6.xlsx
+++ b/Code/QNN_EMG_modelo_full_RL_Refactoring/Experiments/resultsQNNByExperiment/recovering-7/experimentId_6/results_experimentId_6.xlsx
@@ -7,6 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="PARAMS" sheetId="2" r:id="rId3"/>
+    <sheet name="TRAINING" sheetId="3" r:id="rId5"/>
+    <sheet name="VALIDATION" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -14,7 +16,331 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>repTrainingTrain</t>
+  </si>
+  <si>
+    <t>repTrainingValidation</t>
+  </si>
+  <si>
+    <t>repTrainingTest</t>
+  </si>
+  <si>
+    <t>window_size</t>
+  </si>
+  <si>
+    <t>stride</t>
+  </si>
+  <si>
+    <t>numNeuronsInput</t>
+  </si>
+  <si>
+    <t>numNeuronsHidden1</t>
+  </si>
+  <si>
+    <t>numNeuronsHidden2</t>
+  </si>
+  <si>
+    <t>numNeuronsOutput</t>
+  </si>
+  <si>
+    <t>transferFunctionHidden1</t>
+  </si>
+  <si>
+    <t>transferFunctionHidden2</t>
+  </si>
+  <si>
+    <t>transferFunctionOutput</t>
+  </si>
+  <si>
+    <t>initialMomentum</t>
+  </si>
+  <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>numEpochsToIncreaseMomentum</t>
+  </si>
+  <si>
+    <t>learningRate</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>rewardType</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>reserved_space_for_gesture</t>
+  </si>
+  <si>
+    <t>miniBatchSize</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>numEpochs</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>repTrainingTrain</t>
+  </si>
+  <si>
+    <t>repTrainingValidation</t>
+  </si>
+  <si>
+    <t>repTrainingTest</t>
+  </si>
+  <si>
+    <t>window_size</t>
+  </si>
+  <si>
+    <t>stride</t>
+  </si>
+  <si>
+    <t>numNeuronsInput</t>
+  </si>
+  <si>
+    <t>numNeuronsHidden1</t>
+  </si>
+  <si>
+    <t>numNeuronsHidden2</t>
+  </si>
+  <si>
+    <t>numNeuronsOutput</t>
+  </si>
+  <si>
+    <t>transferFunctionHidden1</t>
+  </si>
+  <si>
+    <t>transferFunctionHidden2</t>
+  </si>
+  <si>
+    <t>transferFunctionOutput</t>
+  </si>
+  <si>
+    <t>initialMomentum</t>
+  </si>
+  <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>numEpochsToIncreaseMomentum</t>
+  </si>
+  <si>
+    <t>learningRate</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>rewardType</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>reserved_space_for_gesture</t>
+  </si>
+  <si>
+    <t>miniBatchSize</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>numEpochs</t>
+  </si>
+  <si>
+    <t>RECOGNITION ACCURACY</t>
+  </si>
+  <si>
+    <t>Epoch\\USER</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>CLASIFICATION ACCURACY</t>
+  </si>
+  <si>
+    <t>Epoch\\USER</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>WINDOW ACCURACY</t>
+  </si>
+  <si>
+    <t>Epoch\\USER</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>RECOGNITION ACCURACY</t>
+  </si>
+  <si>
+    <t>Epoch\\USER</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>CLASIFICATION ACCURACY</t>
+  </si>
+  <si>
+    <t>Epoch\\USER</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>WINDOW ACCURACY</t>
+  </si>
+  <si>
+    <t>Epoch\\USER</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>repTrainingTrain</t>
+  </si>
+  <si>
+    <t>repTrainingValidation</t>
+  </si>
+  <si>
+    <t>repTrainingTest</t>
+  </si>
+  <si>
+    <t>window_size</t>
+  </si>
+  <si>
+    <t>stride</t>
+  </si>
+  <si>
+    <t>numNeuronsInput</t>
+  </si>
+  <si>
+    <t>numNeuronsHidden1</t>
+  </si>
+  <si>
+    <t>numNeuronsHidden2</t>
+  </si>
+  <si>
+    <t>numNeuronsOutput</t>
+  </si>
+  <si>
+    <t>transferFunctionHidden1</t>
+  </si>
+  <si>
+    <t>transferFunctionHidden2</t>
+  </si>
+  <si>
+    <t>transferFunctionOutput</t>
+  </si>
+  <si>
+    <t>initialMomentum</t>
+  </si>
+  <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>numEpochsToIncreaseMomentum</t>
+  </si>
+  <si>
+    <t>learningRate</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>rewardType</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>reserved_space_for_gesture</t>
+  </si>
+  <si>
+    <t>miniBatchSize</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>numEpochs</t>
+  </si>
+  <si>
+    <t>RECOGNITION ACCURACY</t>
+  </si>
+  <si>
+    <t>Epoch\\USER</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>CLASIFICATION ACCURACY</t>
+  </si>
+  <si>
+    <t>Epoch\\USER</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>WINDOW ACCURACY</t>
+  </si>
+  <si>
+    <t>Epoch\\USER</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>RECOGNITION ACCURACY</t>
+  </si>
+  <si>
+    <t>Epoch\\USER</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>CLASIFICATION ACCURACY</t>
+  </si>
+  <si>
+    <t>Epoch\\USER</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>WINDOW ACCURACY</t>
+  </si>
+  <si>
+    <t>Epoch\\USER</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
   <si>
     <t>Experience</t>
   </si>
@@ -106,7 +432,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -116,14 +442,122 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,12 +571,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="true"/>
-    <col min="2" max="2" width="4.7109375" customWidth="true"/>
+    <col min="2" max="2" width="5.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B1" s="0">
         <v>6</v>
@@ -150,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="B2" s="0">
         <v>15</v>
@@ -158,7 +592,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="B3" s="0">
         <v>5</v>
@@ -166,7 +600,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="B4" s="0">
         <v>3</v>
@@ -174,7 +608,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="B5" s="0">
         <v>200</v>
@@ -182,7 +616,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B6" s="0">
         <v>20</v>
@@ -190,7 +624,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B7" s="0">
         <v>40</v>
@@ -198,7 +632,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B8" s="0">
         <v>50</v>
@@ -206,7 +640,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="B9" s="0">
         <v>50</v>
@@ -214,7 +648,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="B10" s="0">
         <v>6</v>
@@ -222,7 +656,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="B11" s="0">
         <v>1</v>
@@ -230,7 +664,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
@@ -238,7 +672,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="B13" s="0">
         <v>2</v>
@@ -246,7 +680,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="B14" s="0">
         <v>0.29999999999999999</v>
@@ -254,7 +688,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="B15" s="0">
         <v>0.90000000000000002</v>
@@ -262,7 +696,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B16" s="0">
         <v>50</v>
@@ -270,15 +704,15 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="B17" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -286,7 +720,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="B19" s="0">
         <v>1</v>
@@ -294,42 +728,386 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="B20" s="0">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B21" s="0">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="B22" s="0">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="B23" s="0">
-        <v>0</v>
+        <v>0.29999999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="B24" s="0">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B23"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>5</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>1</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.37209302325581395</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>2</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.48172757475083056</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.46345514950166111</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>4</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.49833887043189368</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>5</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B23"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="true"/>
+    <col min="2" max="2" width="6" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>5</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>1</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>2</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>4</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.68000000000000005</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>5</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.70499999999999996</v>
       </c>
     </row>
   </sheetData>
